--- a/文档/时间计划表.xlsx
+++ b/文档/时间计划表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,7 +28,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户查询</t>
+    <t>数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入、接口推送哲盟，接口接收哲盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口接收第三方，判断保存签收报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲盟返回表、第三方返回表的页面，用于查看，修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,14 +426,14 @@
   <dimension ref="B4:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -453,19 +465,25 @@
       <c r="B7" s="3">
         <v>42851</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>42852</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>42853</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
